--- a/_cv_data/projects.xlsx
+++ b/_cv_data/projects.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -137,13 +137,43 @@
   </si>
   <si>
     <t>Ruby, Rails, Javascript, Postgres</t>
+  </si>
+  <si>
+    <t>Todo App</t>
+  </si>
+  <si>
+    <t>A web application built in Ruby with Sinatra framework, it is a task manager app to list what you have to do.</t>
+  </si>
+  <si>
+    <t>https://boiling-depths-96093.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/salma71/sinatra_todo_app</t>
+  </si>
+  <si>
+    <t>Ruby, postgres</t>
+  </si>
+  <si>
+    <t>Emicredit</t>
+  </si>
+  <si>
+    <t>A web application built in NodeJS backend and ReactJS as a frontend to purchase email credits for campaign surveys</t>
+  </si>
+  <si>
+    <t>https://sleepy-plains-91408.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/salma71/emicredit-rev</t>
+  </si>
+  <si>
+    <t>Nodejs, Express, React, Redux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,6 +203,12 @@
       <sz val="12.0"/>
       <color rgb="FF24292E"/>
       <name val="-apple-system"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -232,6 +268,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -672,14 +711,26 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
@@ -690,14 +741,26 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
@@ -791,7 +854,11 @@
     <hyperlink r:id="rId8" ref="G5"/>
     <hyperlink r:id="rId9" ref="F7"/>
     <hyperlink r:id="rId10" ref="G7"/>
+    <hyperlink r:id="rId11" ref="F8"/>
+    <hyperlink r:id="rId12" ref="G8"/>
+    <hyperlink r:id="rId13" ref="F9"/>
+    <hyperlink r:id="rId14" ref="G9"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>